--- a/Testcases-99guru.xlsx
+++ b/Testcases-99guru.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SOFTWARE TESTING\ASSIGNMENTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F2EBA8-5541-4CD2-A8A4-590BBB9F0446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFC8EBC-6F17-431E-B7F3-5252A8D438E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{66CA2475-4B99-4A12-BC27-D4E79B4032A0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
   <si>
     <t>Test case</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>Add New Customer (negative testing)</t>
+  </si>
+  <si>
+    <t>Entered the invalid password</t>
   </si>
 </sst>
 </file>
@@ -437,9 +440,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -447,95 +447,98 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -879,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C84C850-FF52-47CF-9BB2-484BBD2042F2}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -899,217 +902,217 @@
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="16" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15" t="s">
+      <c r="F2" s="12"/>
+      <c r="G2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="15" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
     </row>
     <row r="4" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="15" t="s">
+      <c r="A4" s="26"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
     </row>
     <row r="5" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="15" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15" t="s">
+      <c r="F5" s="12"/>
+      <c r="G5" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
     </row>
     <row r="6" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21" t="s">
+      <c r="F6" s="14"/>
+      <c r="G6" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
     </row>
     <row r="7" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="21" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-    </row>
-    <row r="8" spans="1:10" ht="78" x14ac:dyDescent="0.3">
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="23" t="s">
+      <c r="B8" s="23"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-    </row>
-    <row r="9" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="21" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21" t="s">
+      <c r="F9" s="14"/>
+      <c r="G9" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
     </row>
     <row r="10" spans="1:10" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="35" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="34" t="s">
@@ -1118,199 +1121,203 @@
       <c r="D11" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
-      <c r="B12" s="33"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="34"/>
       <c r="D12" s="34"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="11" t="s">
+      <c r="E12" s="38"/>
+      <c r="F12" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="32"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
-      <c r="B13" s="33"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="34"/>
       <c r="D13" s="34"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="11" t="s">
+      <c r="E13" s="38"/>
+      <c r="F13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="32"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-    </row>
-    <row r="14" spans="1:10" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
-      <c r="B14" s="33"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="1:10" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="37"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="15" t="s">
+      <c r="E14" s="38"/>
+      <c r="F14" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="32"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-    </row>
-    <row r="15" spans="1:10" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
-      <c r="B15" s="33"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+    </row>
+    <row r="15" spans="1:10" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="37"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="34"/>
       <c r="D15" s="34"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="15" t="s">
+      <c r="E15" s="38"/>
+      <c r="F15" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="32"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-    </row>
-    <row r="16" spans="1:10" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
-      <c r="B16" s="33"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+    </row>
+    <row r="16" spans="1:10" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="37"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="34"/>
       <c r="D16" s="34"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="15" t="s">
+      <c r="E16" s="38"/>
+      <c r="F16" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="32"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-    </row>
-    <row r="17" spans="1:10" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
-      <c r="B17" s="33"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+    </row>
+    <row r="17" spans="1:10" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="37"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="34"/>
       <c r="D17" s="34"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="15" t="s">
+      <c r="E17" s="38"/>
+      <c r="F17" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G17" s="32"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-    </row>
-    <row r="18" spans="1:10" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
-      <c r="B18" s="33"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+    </row>
+    <row r="18" spans="1:10" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="37"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="34"/>
       <c r="D18" s="34"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="15" t="s">
+      <c r="E18" s="38"/>
+      <c r="F18" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="32"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-    </row>
-    <row r="19" spans="1:10" s="36" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
-      <c r="B19" s="33"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+    </row>
+    <row r="19" spans="1:10" s="19" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="37"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="34"/>
       <c r="D19" s="34"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="15" t="s">
+      <c r="E19" s="38"/>
+      <c r="F19" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="32"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-    </row>
-    <row r="20" spans="1:10" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
-      <c r="B20" s="33"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+    </row>
+    <row r="20" spans="1:10" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="37"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="34"/>
       <c r="D20" s="34"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="15" t="s">
+      <c r="E20" s="38"/>
+      <c r="F20" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="32"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-    </row>
-    <row r="21" spans="1:10" s="36" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="37"/>
-      <c r="B21" s="26" t="s">
+      <c r="G20" s="38"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+    </row>
+    <row r="21" spans="1:10" s="19" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="20"/>
+      <c r="B21" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="38"/>
-      <c r="E21" s="21" t="s">
+      <c r="D21" s="21"/>
+      <c r="E21" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="21" t="s">
+      <c r="G21" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-    </row>
-    <row r="22" spans="1:10" s="36" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="37"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="21" t="s">
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+    </row>
+    <row r="22" spans="1:10" s="19" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="20"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G22" s="21" t="s">
+      <c r="G22" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
     </row>
     <row r="23" spans="1:10" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="E11:E20"/>
+    <mergeCell ref="G11:G20"/>
+    <mergeCell ref="D11:D20"/>
+    <mergeCell ref="C21:C22"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:C5"/>
@@ -1322,10 +1329,6 @@
     <mergeCell ref="C11:C20"/>
     <mergeCell ref="B11:B20"/>
     <mergeCell ref="A11:A20"/>
-    <mergeCell ref="E11:E20"/>
-    <mergeCell ref="G11:G20"/>
-    <mergeCell ref="D11:D20"/>
-    <mergeCell ref="C21:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
